--- a/REGULAR/CEO/GOMEZ, EMMA M..xlsx
+++ b/REGULAR/CEO/GOMEZ, EMMA M..xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="392">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1203,10 +1203,13 @@
     <t>UT(0-0-14)</t>
   </si>
   <si>
-    <t>VL(23-0-0)</t>
-  </si>
-  <si>
-    <t>12/11-15,18-22,26-29/2023, 1/2-5,8-12/2024</t>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>12/11-15,18-22,27-29/2023, 1/2-5,8-12/2024</t>
+  </si>
+  <si>
+    <t>VL(22-0-0)</t>
   </si>
 </sst>
 </file>
@@ -3635,8 +3638,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K686" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K686"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K690" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K690"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -4014,12 +4017,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K686"/>
+  <dimension ref="A2:K690"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <pane ySplit="4200" topLeftCell="A641" activePane="bottomLeft"/>
+      <pane ySplit="4200" topLeftCell="A638" activePane="bottomLeft"/>
       <selection activeCell="E10" sqref="E10"/>
-      <selection pane="bottomLeft" activeCell="E655" sqref="E655"/>
+      <selection pane="bottomLeft" activeCell="E648" sqref="E648"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4182,7 +4185,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>42.74000000000013</v>
+        <v>44.848000000000134</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4192,7 +4195,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>201.93299999999999</v>
+        <v>203.18299999999999</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -14219,7 +14222,7 @@
       </c>
       <c r="E448" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>42.74000000000013</v>
+        <v>44.848000000000134</v>
       </c>
       <c r="F448" s="20"/>
       <c r="G448" s="13" t="str">
@@ -14229,7 +14232,7 @@
       <c r="H448" s="37"/>
       <c r="I448" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>201.93299999999999</v>
+        <v>203.18299999999999</v>
       </c>
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
@@ -15610,7 +15613,7 @@
       </c>
       <c r="E508" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>42.74000000000013</v>
+        <v>44.848000000000134</v>
       </c>
       <c r="F508" s="20"/>
       <c r="G508" s="13" t="str">
@@ -15620,7 +15623,7 @@
       <c r="H508" s="37"/>
       <c r="I508" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>201.93299999999999</v>
+        <v>203.18299999999999</v>
       </c>
       <c r="J508" s="11"/>
       <c r="K508" s="50"/>
@@ -18726,34 +18729,32 @@
       </c>
     </row>
     <row r="644" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A644" s="38">
-        <v>45108</v>
-      </c>
+      <c r="A644" s="38"/>
       <c r="B644" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C644" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D644" s="37"/>
+        <v>120</v>
+      </c>
+      <c r="C644" s="13"/>
+      <c r="D644" s="58">
+        <v>4.0000000000000001E-3</v>
+      </c>
       <c r="E644" s="9"/>
       <c r="F644" s="20"/>
-      <c r="G644" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G644" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H644" s="37"/>
       <c r="I644" s="9"/>
       <c r="J644" s="11"/>
-      <c r="K644" s="50">
-        <v>45128</v>
-      </c>
+      <c r="K644" s="50"/>
     </row>
     <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="38">
-        <v>45139</v>
-      </c>
-      <c r="B645" s="20"/>
+        <v>45108</v>
+      </c>
+      <c r="B645" s="20" t="s">
+        <v>66</v>
+      </c>
       <c r="C645" s="13">
         <v>1.25</v>
       </c>
@@ -18767,40 +18768,42 @@
       <c r="H645" s="37"/>
       <c r="I645" s="9"/>
       <c r="J645" s="11"/>
-      <c r="K645" s="20"/>
+      <c r="K645" s="50">
+        <v>45128</v>
+      </c>
     </row>
     <row r="646" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A646" s="38">
-        <v>45170</v>
-      </c>
-      <c r="B646" s="20"/>
-      <c r="C646" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D646" s="37"/>
+      <c r="A646" s="38"/>
+      <c r="B646" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="C646" s="13"/>
+      <c r="D646" s="58">
+        <v>1.9000000000000003E-2</v>
+      </c>
       <c r="E646" s="9"/>
       <c r="F646" s="20"/>
-      <c r="G646" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G646" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H646" s="37"/>
       <c r="I646" s="9"/>
       <c r="J646" s="11"/>
-      <c r="K646" s="20"/>
+      <c r="K646" s="50"/>
     </row>
     <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="38">
-        <v>45200</v>
+        <v>45139</v>
       </c>
       <c r="B647" s="20" t="s">
-        <v>389</v>
+        <v>63</v>
       </c>
       <c r="C647" s="13">
         <v>1.25</v>
       </c>
       <c r="D647" s="37">
-        <v>23</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="E647" s="9"/>
       <c r="F647" s="20"/>
@@ -18811,19 +18814,21 @@
       <c r="H647" s="37"/>
       <c r="I647" s="9"/>
       <c r="J647" s="11"/>
-      <c r="K647" s="20" t="s">
-        <v>390</v>
-      </c>
+      <c r="K647" s="20"/>
     </row>
     <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="38">
-        <v>45231</v>
-      </c>
-      <c r="B648" s="20"/>
+        <v>45170</v>
+      </c>
+      <c r="B648" s="20" t="s">
+        <v>63</v>
+      </c>
       <c r="C648" s="13">
         <v>1.25</v>
       </c>
-      <c r="D648" s="37"/>
+      <c r="D648" s="37">
+        <v>1.7000000000000001E-2</v>
+      </c>
       <c r="E648" s="9"/>
       <c r="F648" s="20"/>
       <c r="G648" s="13">
@@ -18837,29 +18842,39 @@
     </row>
     <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="38">
-        <v>45261</v>
-      </c>
-      <c r="B649" s="20"/>
-      <c r="C649" s="13"/>
-      <c r="D649" s="37"/>
+        <v>45200</v>
+      </c>
+      <c r="B649" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="C649" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D649" s="37">
+        <v>22</v>
+      </c>
       <c r="E649" s="9"/>
       <c r="F649" s="20"/>
-      <c r="G649" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G649" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H649" s="37"/>
       <c r="I649" s="9"/>
       <c r="J649" s="11"/>
-      <c r="K649" s="20"/>
+      <c r="K649" s="20" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="650" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A650" s="38">
-        <v>45292</v>
-      </c>
-      <c r="B650" s="20"/>
+      <c r="A650" s="38"/>
+      <c r="B650" s="20" t="s">
+        <v>107</v>
+      </c>
       <c r="C650" s="13"/>
-      <c r="D650" s="37"/>
+      <c r="D650" s="58">
+        <v>6.0000000000000019E-2</v>
+      </c>
       <c r="E650" s="9"/>
       <c r="F650" s="20"/>
       <c r="G650" s="13" t="str">
@@ -18873,16 +18888,22 @@
     </row>
     <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="38">
-        <v>45323</v>
-      </c>
-      <c r="B651" s="20"/>
-      <c r="C651" s="13"/>
-      <c r="D651" s="37"/>
+        <v>45231</v>
+      </c>
+      <c r="B651" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="C651" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D651" s="37">
+        <v>1.9000000000000003E-2</v>
+      </c>
       <c r="E651" s="9"/>
       <c r="F651" s="20"/>
-      <c r="G651" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G651" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H651" s="37"/>
       <c r="I651" s="9"/>
@@ -18891,16 +18912,22 @@
     </row>
     <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="38">
-        <v>45352</v>
-      </c>
-      <c r="B652" s="20"/>
-      <c r="C652" s="13"/>
-      <c r="D652" s="37"/>
+        <v>45261</v>
+      </c>
+      <c r="B652" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C652" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D652" s="37">
+        <v>6.0000000000000001E-3</v>
+      </c>
       <c r="E652" s="9"/>
       <c r="F652" s="20"/>
-      <c r="G652" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G652" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H652" s="37"/>
       <c r="I652" s="9"/>
@@ -18908,12 +18935,12 @@
       <c r="K652" s="20"/>
     </row>
     <row r="653" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A653" s="38">
-        <v>45383</v>
+      <c r="A653" s="49" t="s">
+        <v>389</v>
       </c>
       <c r="B653" s="20"/>
       <c r="C653" s="13"/>
-      <c r="D653" s="37"/>
+      <c r="D653" s="58"/>
       <c r="E653" s="9"/>
       <c r="F653" s="20"/>
       <c r="G653" s="13" t="str">
@@ -18927,9 +18954,11 @@
     </row>
     <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="38">
-        <v>45413</v>
-      </c>
-      <c r="B654" s="20"/>
+        <v>45292</v>
+      </c>
+      <c r="B654" s="20" t="s">
+        <v>66</v>
+      </c>
       <c r="C654" s="13"/>
       <c r="D654" s="37"/>
       <c r="E654" s="9"/>
@@ -18941,11 +18970,13 @@
       <c r="H654" s="37"/>
       <c r="I654" s="9"/>
       <c r="J654" s="11"/>
-      <c r="K654" s="20"/>
+      <c r="K654" s="50">
+        <v>45306</v>
+      </c>
     </row>
     <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="38">
-        <v>45444</v>
+        <v>45323</v>
       </c>
       <c r="B655" s="20"/>
       <c r="C655" s="13"/>
@@ -18963,7 +18994,7 @@
     </row>
     <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="38">
-        <v>45474</v>
+        <v>45352</v>
       </c>
       <c r="B656" s="20"/>
       <c r="C656" s="13"/>
@@ -18981,7 +19012,7 @@
     </row>
     <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="38">
-        <v>45505</v>
+        <v>45383</v>
       </c>
       <c r="B657" s="20"/>
       <c r="C657" s="13"/>
@@ -18999,7 +19030,7 @@
     </row>
     <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="38">
-        <v>45536</v>
+        <v>45413</v>
       </c>
       <c r="B658" s="20"/>
       <c r="C658" s="13"/>
@@ -19017,7 +19048,7 @@
     </row>
     <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="38">
-        <v>45566</v>
+        <v>45444</v>
       </c>
       <c r="B659" s="20"/>
       <c r="C659" s="13"/>
@@ -19035,7 +19066,7 @@
     </row>
     <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="38">
-        <v>45597</v>
+        <v>45474</v>
       </c>
       <c r="B660" s="20"/>
       <c r="C660" s="13"/>
@@ -19053,7 +19084,7 @@
     </row>
     <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="38">
-        <v>45627</v>
+        <v>45505</v>
       </c>
       <c r="B661" s="20"/>
       <c r="C661" s="13"/>
@@ -19071,7 +19102,7 @@
     </row>
     <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="38">
-        <v>45658</v>
+        <v>45536</v>
       </c>
       <c r="B662" s="20"/>
       <c r="C662" s="13"/>
@@ -19088,7 +19119,9 @@
       <c r="K662" s="20"/>
     </row>
     <row r="663" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A663" s="38"/>
+      <c r="A663" s="38">
+        <v>45566</v>
+      </c>
       <c r="B663" s="20"/>
       <c r="C663" s="13"/>
       <c r="D663" s="37"/>
@@ -19104,7 +19137,9 @@
       <c r="K663" s="20"/>
     </row>
     <row r="664" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A664" s="38"/>
+      <c r="A664" s="38">
+        <v>45597</v>
+      </c>
       <c r="B664" s="20"/>
       <c r="C664" s="13"/>
       <c r="D664" s="37"/>
@@ -19120,7 +19155,9 @@
       <c r="K664" s="20"/>
     </row>
     <row r="665" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A665" s="38"/>
+      <c r="A665" s="38">
+        <v>45627</v>
+      </c>
       <c r="B665" s="20"/>
       <c r="C665" s="13"/>
       <c r="D665" s="37"/>
@@ -19136,7 +19173,9 @@
       <c r="K665" s="20"/>
     </row>
     <row r="666" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A666" s="38"/>
+      <c r="A666" s="38">
+        <v>45658</v>
+      </c>
       <c r="B666" s="20"/>
       <c r="C666" s="13"/>
       <c r="D666" s="37"/>
@@ -19456,20 +19495,84 @@
       <c r="K685" s="20"/>
     </row>
     <row r="686" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A686" s="39"/>
-      <c r="B686" s="15"/>
-      <c r="C686" s="40"/>
-      <c r="D686" s="41"/>
-      <c r="E686" s="56"/>
-      <c r="F686" s="15"/>
-      <c r="G686" s="40" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H686" s="41"/>
-      <c r="I686" s="56"/>
-      <c r="J686" s="12"/>
-      <c r="K686" s="15"/>
+      <c r="A686" s="38"/>
+      <c r="B686" s="20"/>
+      <c r="C686" s="13"/>
+      <c r="D686" s="37"/>
+      <c r="E686" s="9"/>
+      <c r="F686" s="20"/>
+      <c r="G686" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H686" s="37"/>
+      <c r="I686" s="9"/>
+      <c r="J686" s="11"/>
+      <c r="K686" s="20"/>
+    </row>
+    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A687" s="38"/>
+      <c r="B687" s="20"/>
+      <c r="C687" s="13"/>
+      <c r="D687" s="37"/>
+      <c r="E687" s="9"/>
+      <c r="F687" s="20"/>
+      <c r="G687" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H687" s="37"/>
+      <c r="I687" s="9"/>
+      <c r="J687" s="11"/>
+      <c r="K687" s="20"/>
+    </row>
+    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A688" s="38"/>
+      <c r="B688" s="20"/>
+      <c r="C688" s="13"/>
+      <c r="D688" s="37"/>
+      <c r="E688" s="9"/>
+      <c r="F688" s="20"/>
+      <c r="G688" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H688" s="37"/>
+      <c r="I688" s="9"/>
+      <c r="J688" s="11"/>
+      <c r="K688" s="20"/>
+    </row>
+    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A689" s="38"/>
+      <c r="B689" s="20"/>
+      <c r="C689" s="13"/>
+      <c r="D689" s="37"/>
+      <c r="E689" s="9"/>
+      <c r="F689" s="20"/>
+      <c r="G689" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H689" s="37"/>
+      <c r="I689" s="9"/>
+      <c r="J689" s="11"/>
+      <c r="K689" s="20"/>
+    </row>
+    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A690" s="39"/>
+      <c r="B690" s="15"/>
+      <c r="C690" s="40"/>
+      <c r="D690" s="41"/>
+      <c r="E690" s="56"/>
+      <c r="F690" s="15"/>
+      <c r="G690" s="40" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H690" s="41"/>
+      <c r="I690" s="56"/>
+      <c r="J690" s="12"/>
+      <c r="K690" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -19588,11 +19691,11 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>2.3000000000000007E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="33">

--- a/REGULAR/CEO/GOMEZ, EMMA M..xlsx
+++ b/REGULAR/CEO/GOMEZ, EMMA M..xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="396">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1210,6 +1210,18 @@
   </si>
   <si>
     <t>VL(22-0-0)</t>
+  </si>
+  <si>
+    <t>A(1-0-0)</t>
+  </si>
+  <si>
+    <t>UT(0-0-21)</t>
+  </si>
+  <si>
+    <t>A(8-0-0)</t>
+  </si>
+  <si>
+    <t>2/1,2,3,20,21,22,23,27/2023</t>
   </si>
 </sst>
 </file>
@@ -2103,7 +2115,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2146,7 +2158,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2210,7 +2222,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2270,7 +2282,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2336,7 +2348,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2399,7 +2411,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2497,7 +2509,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2556,7 +2568,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2621,7 +2633,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2664,7 +2676,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2739,7 +2751,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2925,7 +2937,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2991,7 +3003,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3049,7 +3061,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3115,7 +3127,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3171,7 +3183,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3246,7 +3258,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3289,7 +3301,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3355,7 +3367,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3411,7 +3423,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3509,7 +3521,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3572,7 +3584,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3638,8 +3650,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K690" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K690"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K695" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K695"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -4017,12 +4029,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K690"/>
+  <dimension ref="A2:K695"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <pane ySplit="4200" topLeftCell="A638" activePane="bottomLeft"/>
+      <pane ySplit="4200" topLeftCell="A632" activePane="bottomLeft"/>
       <selection activeCell="E10" sqref="E10"/>
-      <selection pane="bottomLeft" activeCell="E648" sqref="E648"/>
+      <selection pane="bottomLeft" activeCell="F644" sqref="F644"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4185,7 +4197,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>44.848000000000134</v>
+        <v>35.765000000000107</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -14222,7 +14234,7 @@
       </c>
       <c r="E448" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>44.848000000000134</v>
+        <v>35.765000000000107</v>
       </c>
       <c r="F448" s="20"/>
       <c r="G448" s="13" t="str">
@@ -15613,7 +15625,7 @@
       </c>
       <c r="E508" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>44.848000000000134</v>
+        <v>35.765000000000107</v>
       </c>
       <c r="F508" s="20"/>
       <c r="G508" s="13" t="str">
@@ -18635,60 +18647,54 @@
       </c>
     </row>
     <row r="640" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A640" s="38">
-        <v>44986</v>
-      </c>
+      <c r="A640" s="38"/>
       <c r="B640" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C640" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D640" s="37"/>
+        <v>394</v>
+      </c>
+      <c r="C640" s="13"/>
+      <c r="D640" s="58">
+        <v>8</v>
+      </c>
       <c r="E640" s="9"/>
       <c r="F640" s="20"/>
-      <c r="G640" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G640" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H640" s="37"/>
       <c r="I640" s="9"/>
       <c r="J640" s="11"/>
-      <c r="K640" s="50">
-        <v>45008</v>
+      <c r="K640" s="20" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="641" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A641" s="38">
-        <v>45017</v>
-      </c>
+      <c r="A641" s="38"/>
       <c r="B641" s="20" t="s">
-        <v>384</v>
-      </c>
-      <c r="C641" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D641" s="37">
-        <v>16</v>
+        <v>120</v>
+      </c>
+      <c r="C641" s="13"/>
+      <c r="D641" s="58">
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E641" s="9"/>
       <c r="F641" s="20"/>
-      <c r="G641" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G641" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H641" s="37"/>
       <c r="I641" s="9"/>
       <c r="J641" s="11"/>
-      <c r="K641" s="20" t="s">
-        <v>385</v>
-      </c>
+      <c r="K641" s="20"/>
     </row>
     <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="38">
-        <v>45047</v>
-      </c>
-      <c r="B642" s="20"/>
+        <v>44986</v>
+      </c>
+      <c r="B642" s="20" t="s">
+        <v>66</v>
+      </c>
       <c r="C642" s="13">
         <v>1.25</v>
       </c>
@@ -18702,40 +18708,40 @@
       <c r="H642" s="37"/>
       <c r="I642" s="9"/>
       <c r="J642" s="11"/>
-      <c r="K642" s="20"/>
+      <c r="K642" s="50">
+        <v>45008</v>
+      </c>
     </row>
     <row r="643" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A643" s="38">
-        <v>45078</v>
-      </c>
+      <c r="A643" s="38"/>
       <c r="B643" s="20" t="s">
-        <v>386</v>
-      </c>
-      <c r="C643" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D643" s="37"/>
+        <v>392</v>
+      </c>
+      <c r="C643" s="13"/>
+      <c r="D643" s="58">
+        <v>1</v>
+      </c>
       <c r="E643" s="9"/>
       <c r="F643" s="20"/>
-      <c r="G643" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G643" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H643" s="37"/>
       <c r="I643" s="9"/>
       <c r="J643" s="11"/>
       <c r="K643" s="50">
-        <v>45082</v>
+        <v>45011</v>
       </c>
     </row>
     <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="38"/>
       <c r="B644" s="20" t="s">
-        <v>120</v>
+        <v>393</v>
       </c>
       <c r="C644" s="13"/>
       <c r="D644" s="58">
-        <v>4.0000000000000001E-3</v>
+        <v>4.4000000000000004E-2</v>
       </c>
       <c r="E644" s="9"/>
       <c r="F644" s="20"/>
@@ -18750,15 +18756,17 @@
     </row>
     <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="38">
-        <v>45108</v>
+        <v>45017</v>
       </c>
       <c r="B645" s="20" t="s">
-        <v>66</v>
+        <v>384</v>
       </c>
       <c r="C645" s="13">
         <v>1.25</v>
       </c>
-      <c r="D645" s="37"/>
+      <c r="D645" s="37">
+        <v>16</v>
+      </c>
       <c r="E645" s="9"/>
       <c r="F645" s="20"/>
       <c r="G645" s="13">
@@ -18768,18 +18776,18 @@
       <c r="H645" s="37"/>
       <c r="I645" s="9"/>
       <c r="J645" s="11"/>
-      <c r="K645" s="50">
-        <v>45128</v>
+      <c r="K645" s="20" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="38"/>
       <c r="B646" s="20" t="s">
-        <v>322</v>
+        <v>102</v>
       </c>
       <c r="C646" s="13"/>
       <c r="D646" s="58">
-        <v>1.9000000000000003E-2</v>
+        <v>3.5000000000000017E-2</v>
       </c>
       <c r="E646" s="9"/>
       <c r="F646" s="20"/>
@@ -18790,21 +18798,17 @@
       <c r="H646" s="37"/>
       <c r="I646" s="9"/>
       <c r="J646" s="11"/>
-      <c r="K646" s="50"/>
+      <c r="K646" s="20"/>
     </row>
     <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="38">
-        <v>45139</v>
-      </c>
-      <c r="B647" s="20" t="s">
-        <v>63</v>
-      </c>
+        <v>45047</v>
+      </c>
+      <c r="B647" s="20"/>
       <c r="C647" s="13">
         <v>1.25</v>
       </c>
-      <c r="D647" s="37">
-        <v>1.7000000000000001E-2</v>
-      </c>
+      <c r="D647" s="37"/>
       <c r="E647" s="9"/>
       <c r="F647" s="20"/>
       <c r="G647" s="13">
@@ -18818,17 +18822,15 @@
     </row>
     <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="38">
-        <v>45170</v>
+        <v>45078</v>
       </c>
       <c r="B648" s="20" t="s">
-        <v>63</v>
+        <v>386</v>
       </c>
       <c r="C648" s="13">
         <v>1.25</v>
       </c>
-      <c r="D648" s="37">
-        <v>1.7000000000000001E-2</v>
-      </c>
+      <c r="D648" s="37"/>
       <c r="E648" s="9"/>
       <c r="F648" s="20"/>
       <c r="G648" s="13">
@@ -18838,90 +18840,86 @@
       <c r="H648" s="37"/>
       <c r="I648" s="9"/>
       <c r="J648" s="11"/>
-      <c r="K648" s="20"/>
+      <c r="K648" s="50">
+        <v>45082</v>
+      </c>
     </row>
     <row r="649" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A649" s="38">
-        <v>45200</v>
-      </c>
+      <c r="A649" s="38"/>
       <c r="B649" s="20" t="s">
-        <v>391</v>
-      </c>
-      <c r="C649" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D649" s="37">
-        <v>22</v>
+        <v>120</v>
+      </c>
+      <c r="C649" s="13"/>
+      <c r="D649" s="58">
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E649" s="9"/>
       <c r="F649" s="20"/>
-      <c r="G649" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G649" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H649" s="37"/>
       <c r="I649" s="9"/>
       <c r="J649" s="11"/>
-      <c r="K649" s="20" t="s">
-        <v>390</v>
-      </c>
+      <c r="K649" s="50"/>
     </row>
     <row r="650" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A650" s="38"/>
+      <c r="A650" s="38">
+        <v>45108</v>
+      </c>
       <c r="B650" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C650" s="13"/>
-      <c r="D650" s="58">
-        <v>6.0000000000000019E-2</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C650" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D650" s="37"/>
       <c r="E650" s="9"/>
       <c r="F650" s="20"/>
-      <c r="G650" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G650" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H650" s="37"/>
       <c r="I650" s="9"/>
       <c r="J650" s="11"/>
-      <c r="K650" s="20"/>
+      <c r="K650" s="50">
+        <v>45128</v>
+      </c>
     </row>
     <row r="651" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A651" s="38">
-        <v>45231</v>
-      </c>
+      <c r="A651" s="38"/>
       <c r="B651" s="20" t="s">
         <v>322</v>
       </c>
-      <c r="C651" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D651" s="37">
+      <c r="C651" s="13"/>
+      <c r="D651" s="58">
         <v>1.9000000000000003E-2</v>
       </c>
       <c r="E651" s="9"/>
       <c r="F651" s="20"/>
-      <c r="G651" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G651" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H651" s="37"/>
       <c r="I651" s="9"/>
       <c r="J651" s="11"/>
-      <c r="K651" s="20"/>
+      <c r="K651" s="50"/>
     </row>
     <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="38">
-        <v>45261</v>
+        <v>45139</v>
       </c>
       <c r="B652" s="20" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C652" s="13">
         <v>1.25</v>
       </c>
       <c r="D652" s="37">
-        <v>6.0000000000000001E-3</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="E652" s="9"/>
       <c r="F652" s="20"/>
@@ -18935,17 +18933,23 @@
       <c r="K652" s="20"/>
     </row>
     <row r="653" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A653" s="49" t="s">
-        <v>389</v>
-      </c>
-      <c r="B653" s="20"/>
-      <c r="C653" s="13"/>
-      <c r="D653" s="58"/>
+      <c r="A653" s="38">
+        <v>45170</v>
+      </c>
+      <c r="B653" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C653" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D653" s="37">
+        <v>1.7000000000000001E-2</v>
+      </c>
       <c r="E653" s="9"/>
       <c r="F653" s="20"/>
-      <c r="G653" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G653" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H653" s="37"/>
       <c r="I653" s="9"/>
@@ -18954,33 +18958,39 @@
     </row>
     <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="38">
-        <v>45292</v>
+        <v>45200</v>
       </c>
       <c r="B654" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C654" s="13"/>
-      <c r="D654" s="37"/>
+        <v>391</v>
+      </c>
+      <c r="C654" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D654" s="37">
+        <v>22</v>
+      </c>
       <c r="E654" s="9"/>
       <c r="F654" s="20"/>
-      <c r="G654" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G654" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H654" s="37"/>
       <c r="I654" s="9"/>
       <c r="J654" s="11"/>
-      <c r="K654" s="50">
-        <v>45306</v>
+      <c r="K654" s="20" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="655" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A655" s="38">
-        <v>45323</v>
-      </c>
-      <c r="B655" s="20"/>
+      <c r="A655" s="38"/>
+      <c r="B655" s="20" t="s">
+        <v>107</v>
+      </c>
       <c r="C655" s="13"/>
-      <c r="D655" s="37"/>
+      <c r="D655" s="58">
+        <v>6.0000000000000019E-2</v>
+      </c>
       <c r="E655" s="9"/>
       <c r="F655" s="20"/>
       <c r="G655" s="13" t="str">
@@ -18994,16 +19004,22 @@
     </row>
     <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="38">
-        <v>45352</v>
-      </c>
-      <c r="B656" s="20"/>
-      <c r="C656" s="13"/>
-      <c r="D656" s="37"/>
+        <v>45231</v>
+      </c>
+      <c r="B656" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="C656" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D656" s="37">
+        <v>1.9000000000000003E-2</v>
+      </c>
       <c r="E656" s="9"/>
       <c r="F656" s="20"/>
-      <c r="G656" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G656" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H656" s="37"/>
       <c r="I656" s="9"/>
@@ -19012,16 +19028,22 @@
     </row>
     <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="38">
-        <v>45383</v>
-      </c>
-      <c r="B657" s="20"/>
-      <c r="C657" s="13"/>
-      <c r="D657" s="37"/>
+        <v>45261</v>
+      </c>
+      <c r="B657" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C657" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D657" s="37">
+        <v>6.0000000000000001E-3</v>
+      </c>
       <c r="E657" s="9"/>
       <c r="F657" s="20"/>
-      <c r="G657" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G657" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H657" s="37"/>
       <c r="I657" s="9"/>
@@ -19029,12 +19051,12 @@
       <c r="K657" s="20"/>
     </row>
     <row r="658" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A658" s="38">
-        <v>45413</v>
+      <c r="A658" s="49" t="s">
+        <v>389</v>
       </c>
       <c r="B658" s="20"/>
       <c r="C658" s="13"/>
-      <c r="D658" s="37"/>
+      <c r="D658" s="58"/>
       <c r="E658" s="9"/>
       <c r="F658" s="20"/>
       <c r="G658" s="13" t="str">
@@ -19048,9 +19070,11 @@
     </row>
     <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="38">
-        <v>45444</v>
-      </c>
-      <c r="B659" s="20"/>
+        <v>45292</v>
+      </c>
+      <c r="B659" s="20" t="s">
+        <v>66</v>
+      </c>
       <c r="C659" s="13"/>
       <c r="D659" s="37"/>
       <c r="E659" s="9"/>
@@ -19062,11 +19086,13 @@
       <c r="H659" s="37"/>
       <c r="I659" s="9"/>
       <c r="J659" s="11"/>
-      <c r="K659" s="20"/>
+      <c r="K659" s="50">
+        <v>45306</v>
+      </c>
     </row>
     <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="38">
-        <v>45474</v>
+        <v>45323</v>
       </c>
       <c r="B660" s="20"/>
       <c r="C660" s="13"/>
@@ -19084,7 +19110,7 @@
     </row>
     <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="38">
-        <v>45505</v>
+        <v>45352</v>
       </c>
       <c r="B661" s="20"/>
       <c r="C661" s="13"/>
@@ -19102,7 +19128,7 @@
     </row>
     <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="38">
-        <v>45536</v>
+        <v>45383</v>
       </c>
       <c r="B662" s="20"/>
       <c r="C662" s="13"/>
@@ -19120,7 +19146,7 @@
     </row>
     <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="38">
-        <v>45566</v>
+        <v>45413</v>
       </c>
       <c r="B663" s="20"/>
       <c r="C663" s="13"/>
@@ -19138,7 +19164,7 @@
     </row>
     <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="38">
-        <v>45597</v>
+        <v>45444</v>
       </c>
       <c r="B664" s="20"/>
       <c r="C664" s="13"/>
@@ -19156,7 +19182,7 @@
     </row>
     <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="38">
-        <v>45627</v>
+        <v>45474</v>
       </c>
       <c r="B665" s="20"/>
       <c r="C665" s="13"/>
@@ -19174,7 +19200,7 @@
     </row>
     <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="38">
-        <v>45658</v>
+        <v>45505</v>
       </c>
       <c r="B666" s="20"/>
       <c r="C666" s="13"/>
@@ -19191,7 +19217,9 @@
       <c r="K666" s="20"/>
     </row>
     <row r="667" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A667" s="38"/>
+      <c r="A667" s="38">
+        <v>45536</v>
+      </c>
       <c r="B667" s="20"/>
       <c r="C667" s="13"/>
       <c r="D667" s="37"/>
@@ -19207,7 +19235,9 @@
       <c r="K667" s="20"/>
     </row>
     <row r="668" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A668" s="38"/>
+      <c r="A668" s="38">
+        <v>45566</v>
+      </c>
       <c r="B668" s="20"/>
       <c r="C668" s="13"/>
       <c r="D668" s="37"/>
@@ -19223,7 +19253,9 @@
       <c r="K668" s="20"/>
     </row>
     <row r="669" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A669" s="38"/>
+      <c r="A669" s="38">
+        <v>45597</v>
+      </c>
       <c r="B669" s="20"/>
       <c r="C669" s="13"/>
       <c r="D669" s="37"/>
@@ -19239,7 +19271,9 @@
       <c r="K669" s="20"/>
     </row>
     <row r="670" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A670" s="38"/>
+      <c r="A670" s="38">
+        <v>45627</v>
+      </c>
       <c r="B670" s="20"/>
       <c r="C670" s="13"/>
       <c r="D670" s="37"/>
@@ -19255,7 +19289,9 @@
       <c r="K670" s="20"/>
     </row>
     <row r="671" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A671" s="38"/>
+      <c r="A671" s="38">
+        <v>45658</v>
+      </c>
       <c r="B671" s="20"/>
       <c r="C671" s="13"/>
       <c r="D671" s="37"/>
@@ -19559,20 +19595,100 @@
       <c r="K689" s="20"/>
     </row>
     <row r="690" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A690" s="39"/>
-      <c r="B690" s="15"/>
-      <c r="C690" s="40"/>
-      <c r="D690" s="41"/>
-      <c r="E690" s="56"/>
-      <c r="F690" s="15"/>
-      <c r="G690" s="40" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H690" s="41"/>
-      <c r="I690" s="56"/>
-      <c r="J690" s="12"/>
-      <c r="K690" s="15"/>
+      <c r="A690" s="38"/>
+      <c r="B690" s="20"/>
+      <c r="C690" s="13"/>
+      <c r="D690" s="37"/>
+      <c r="E690" s="9"/>
+      <c r="F690" s="20"/>
+      <c r="G690" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H690" s="37"/>
+      <c r="I690" s="9"/>
+      <c r="J690" s="11"/>
+      <c r="K690" s="20"/>
+    </row>
+    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A691" s="38"/>
+      <c r="B691" s="20"/>
+      <c r="C691" s="13"/>
+      <c r="D691" s="37"/>
+      <c r="E691" s="9"/>
+      <c r="F691" s="20"/>
+      <c r="G691" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H691" s="37"/>
+      <c r="I691" s="9"/>
+      <c r="J691" s="11"/>
+      <c r="K691" s="20"/>
+    </row>
+    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A692" s="38"/>
+      <c r="B692" s="20"/>
+      <c r="C692" s="13"/>
+      <c r="D692" s="37"/>
+      <c r="E692" s="9"/>
+      <c r="F692" s="20"/>
+      <c r="G692" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H692" s="37"/>
+      <c r="I692" s="9"/>
+      <c r="J692" s="11"/>
+      <c r="K692" s="20"/>
+    </row>
+    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A693" s="38"/>
+      <c r="B693" s="20"/>
+      <c r="C693" s="13"/>
+      <c r="D693" s="37"/>
+      <c r="E693" s="9"/>
+      <c r="F693" s="20"/>
+      <c r="G693" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H693" s="37"/>
+      <c r="I693" s="9"/>
+      <c r="J693" s="11"/>
+      <c r="K693" s="20"/>
+    </row>
+    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A694" s="38"/>
+      <c r="B694" s="20"/>
+      <c r="C694" s="13"/>
+      <c r="D694" s="37"/>
+      <c r="E694" s="9"/>
+      <c r="F694" s="20"/>
+      <c r="G694" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H694" s="37"/>
+      <c r="I694" s="9"/>
+      <c r="J694" s="11"/>
+      <c r="K694" s="20"/>
+    </row>
+    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A695" s="39"/>
+      <c r="B695" s="15"/>
+      <c r="C695" s="40"/>
+      <c r="D695" s="41"/>
+      <c r="E695" s="56"/>
+      <c r="F695" s="15"/>
+      <c r="G695" s="40" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H695" s="41"/>
+      <c r="I695" s="56"/>
+      <c r="J695" s="12"/>
+      <c r="K695" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
